--- a/doc/FormulasDocumentation.xlsx
+++ b/doc/FormulasDocumentation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
   <si>
     <t>formula</t>
   </si>
@@ -184,6 +184,12 @@
   </si>
   <si>
     <t>Functions Formulas; order of application = 5</t>
+  </si>
+  <si>
+    <t>HASH(hashAlgorithm,value)</t>
+  </si>
+  <si>
+    <t>return the "value" string after applying the hash function defined by the algorithm. Example: HASH(MD5,myString)</t>
   </si>
 </sst>
 </file>
@@ -385,8 +391,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table24568" displayName="Table24568" ref="A35:B40" totalsRowShown="0">
-  <autoFilter ref="A35:B40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table24568" displayName="Table24568" ref="A35:B41" totalsRowShown="0">
+  <autoFilter ref="A35:B41"/>
   <tableColumns count="2">
     <tableColumn id="1" name="formula" dataDxfId="0"/>
     <tableColumn id="2" name="outcome"/>
@@ -682,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J40"/>
+  <dimension ref="A2:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,6 +989,14 @@
       </c>
       <c r="B40" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/doc/FormulasDocumentation.xlsx
+++ b/doc/FormulasDocumentation.xlsx
@@ -275,7 +275,7 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4667250" cy="1814599"/>
+    <xdr:ext cx="4667250" cy="2503506"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -284,7 +284,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11563350" y="219075"/>
-          <a:ext cx="4667250" cy="1814599"/>
+          <a:ext cx="4667250" cy="2503506"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -337,6 +337,15 @@
           <a:r>
             <a:rPr lang="en-GB" sz="1100" b="1" baseline="0"/>
             <a:t>For example, you cannot use RELATION(tablename, ZERO_PADDING(50,5).code) since the ZERO_PADDING function will be solved only when the RELATION statement is already processed.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+            <a:t>Note that the same is valid also inside the same order of application! For example the SUM function will be resolved before the IF function, therefore you cannot use an IF nested inside a SUM function.</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -688,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J41"/>
+  <dimension ref="A2:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,51 +962,63 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
-      </c>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/doc/FormulasDocumentation.xlsx
+++ b/doc/FormulasDocumentation.xlsx
@@ -275,7 +275,7 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4667250" cy="2503506"/>
+    <xdr:ext cx="4667250" cy="3364639"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -284,7 +284,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11563350" y="219075"/>
-          <a:ext cx="4667250" cy="2503506"/>
+          <a:ext cx="4667250" cy="3364639"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -346,6 +346,27 @@
           <a:r>
             <a:rPr lang="en-GB" sz="1100" b="1" baseline="0"/>
             <a:t>Note that the same is valid also inside the same order of application! For example the SUM function will be resolved before the IF function, therefore you cannot use an IF nested inside a SUM function.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+            <a:t>Note also that since formulas are evaluated using regular expression, it is not possible to use nested formulas of the same type, as:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+            <a:t>IF((a==b),IF((c==d),d,a),b)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+            <a:t>This will not be resolved correctly.</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -700,7 +721,7 @@
   <dimension ref="A2:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
